--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Evaluation_WB312.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Evaluation_WB312.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,23 @@
           <t>Angle between normals (degrees)</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Coord: normal vector scan</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1333689755677784</v>
+        <v>0.1333730812976081</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.         0.32276389 0.94647952]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -458,7 +468,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.611876170689333</v>
+        <v>1.611874410507632</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[-0.43690781  0.52136285  0.73300228]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -466,7 +481,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3267103911485251</v>
+        <v>0.3267080566507467</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-0.00531186  0.01811423  0.99982181]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -474,7 +494,12 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7858765289632763</v>
+        <v>0.7858762146602799</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-6.91565831e-04  2.81342319e-01 -9.59607222e-01]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -482,7 +507,12 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.087631026245377</v>
+        <v>2.087626368550382</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[0.71928458 0.28914187 0.63168557]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -490,7 +520,12 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2260885676214363</v>
+        <v>0.2261021724828858</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.73973604 -0.27273953  0.6151453 ]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -498,7 +533,12 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4609650792499144</v>
+        <v>0.4609665665156076</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[0.         0.31734706 0.94830946]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -506,7 +546,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.499801256127355</v>
+        <v>1.499799544499535</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[ 0.         -0.30010201  0.95390712]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -514,7 +559,12 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.038763531615637</v>
+        <v>2.038754803392189</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-0.72578655  0.25637797  0.63836057]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -522,7 +572,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.211309642832614</v>
+        <v>2.211307404105731</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[ 0.72576295 -0.27321059  0.63136686]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -530,7 +585,12 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7699713271069912</v>
+        <v>0.7699691685337028</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[ 6.77333416e-04 -2.81608377e-01 -9.59529188e-01]</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -538,7 +598,12 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.393521737528312</v>
+        <v>2.393526889858017</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[-0.7179608  -0.28315001  0.63589179]</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -546,7 +611,12 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.414415748302427</v>
+        <v>4.414422470166294</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[0.69516985 0.25705402 0.67131372]</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -554,7 +624,12 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.614875689029596</v>
+        <v>1.614874150419871</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[ 0.         -0.29818554  0.95450793]</t>
+        </is>
       </c>
     </row>
   </sheetData>
